--- a/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecord.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecord.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25785" windowHeight="11145"/>
+    <workbookView windowWidth="25545" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet name="导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="应急队伍训练记录导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -935,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,20 +996,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1335,7 +1326,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:J14"/>
+      <selection activeCell="E13" sqref="E13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1391,7 +1382,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="23"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
@@ -1476,12 +1467,12 @@
       <c r="B8" s="5"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="24"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
@@ -1490,12 +1481,12 @@
       <c r="B9" s="5"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="24"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
@@ -1504,12 +1495,12 @@
       <c r="B10" s="5"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="24"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
@@ -1518,12 +1509,12 @@
       <c r="B11" s="5"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="24"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -1532,12 +1523,12 @@
       <c r="B12" s="5"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="24"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
@@ -1546,12 +1537,12 @@
       <c r="B13" s="5"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="24"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
@@ -1560,12 +1551,12 @@
       <c r="B14" s="5"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
@@ -1574,12 +1565,12 @@
       <c r="B15" s="5"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="24"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
@@ -1588,12 +1579,12 @@
       <c r="B16" s="5"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="24"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -1629,29 +1620,29 @@
     </row>
     <row r="19" customHeight="1" spans="1:12">
       <c r="A19" s="6"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" customHeight="1" spans="1:12">
       <c r="A20" s="6"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
